--- a/lectures/07-DenoKV/07-DenoKV-Books.xlsx
+++ b/lectures/07-DenoKV/07-DenoKV-Books.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csev/htdocs/pg4e/lectures/07-DenoKV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA2B95-69B6-2643-9DF5-96B063062DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E98031-FAA0-2942-ABF7-8A2F797CB09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11920" yWindow="2640" windowWidth="18000" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Title</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Author</t>
   </si>
   <si>
-    <t>Genre</t>
-  </si>
-  <si>
     <t>ISBN</t>
   </si>
   <si>
@@ -57,16 +54,10 @@
     <t>Tim Berners-Lee</t>
   </si>
   <si>
-    <t>Tech</t>
-  </si>
-  <si>
     <t>en</t>
   </si>
   <si>
     <t>Katy Hafner</t>
-  </si>
-  <si>
-    <t>Think</t>
   </si>
   <si>
     <t>Innovators Dilemma</t>
@@ -469,222 +460,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>385721706</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
